--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325556.3918026246</v>
+        <v>388611.9305032946</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3842442.348868397</v>
+        <v>5530772.757762744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10498891.99518629</v>
+        <v>12153624.62894364</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8698202.045674903</v>
+        <v>7792903.264408386</v>
       </c>
     </row>
     <row r="11">
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>35.40726547353844</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="6">
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>189.6723709928539</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,22 +1095,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>188.9257796665961</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.20118209180436</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.2515972337438</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>70.02631374670447</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>55.28040592098301</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643704</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2224443473098</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>54.71409145975218</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>15.95792946088021</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.63235515377118</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>140.5078369722467</v>
       </c>
       <c r="G15" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958686</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.5433707534458</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>175.0929914927921</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>149.308841137761</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>287.6641008419144</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459915</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
         <v>195.0194028815133</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7131295897661482</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.8283410268943</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>362.7225206076721</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>143.1463818629338</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.71313947704278</v>
+        <v>47.67896629050069</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>257.1842138493627</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>51.41757781439996</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="T25" t="n">
-        <v>90.88573882155669</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>405.0756454733327</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>158.1141673584417</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>116.7356294164223</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>137.7488816755003</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>142.9849043349552</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>14.78087719027624</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>116.902239282742</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>219.5303233717482</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>391.4041375590659</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51.08755516866951</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>95.66945437557663</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>198.5670282979685</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>298.3006636209741</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>123.7706912507543</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>77.21190825557674</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>207.7180620093827</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3758033747201</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>57.06981334206183</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I39" t="n">
-        <v>45.4458084395873</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.39856530802291</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.59299030330403</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>156.8695092195032</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>172.170208697231</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>219.3750830751128</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>120.7929365475313</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>109.6548943171913</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.947095140322</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.886223317052</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>509.4769954460863</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V2" t="n">
-        <v>266.0282188019862</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>22.57944215788615</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1358.733275299433</v>
+        <v>348.8024783853862</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.733275299433</v>
+        <v>348.8024783853862</v>
       </c>
       <c r="D11" t="n">
-        <v>1000.467576692682</v>
+        <v>91.14048048306063</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.467576692682</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F11" t="n">
-        <v>589.4816719030746</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G11" t="n">
-        <v>172.393890139502</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H11" t="n">
-        <v>172.393890139502</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J11" t="n">
-        <v>241.3408185533492</v>
+        <v>101.5286049718924</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8079315733946</v>
+        <v>184.0917595464848</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.36013938198</v>
+        <v>323.420415387738</v>
       </c>
       <c r="M11" t="n">
-        <v>1219.059552207387</v>
+        <v>510.1198282131456</v>
       </c>
       <c r="N11" t="n">
-        <v>1413.39376509937</v>
+        <v>704.454041105128</v>
       </c>
       <c r="O11" t="n">
-        <v>1960.554969866447</v>
+        <v>874.6230664220875</v>
       </c>
       <c r="P11" t="n">
-        <v>2389.870016205742</v>
+        <v>985.357391671614</v>
       </c>
       <c r="Q11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.830939477471</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="T11" t="n">
-        <v>2264.031077745182</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="U11" t="n">
-        <v>2264.031077745182</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="V11" t="n">
-        <v>1932.968190401611</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="W11" t="n">
-        <v>1580.199535131497</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="X11" t="n">
-        <v>1580.199535131497</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.199535131497</v>
+        <v>606.4644762877117</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>530.9520467332648</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>475.113252873686</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>326.1788432124347</v>
       </c>
       <c r="E12" t="n">
-        <v>483.497710018385</v>
+        <v>166.9413882069792</v>
       </c>
       <c r="F12" t="n">
-        <v>336.96315204527</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023184</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L12" t="n">
-        <v>989.1812241132636</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M12" t="n">
-        <v>1168.678560467868</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N12" t="n">
-        <v>1820.852439770578</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439338</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.934077382829</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.467288245464</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.477992405552</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.187096684975</v>
+        <v>785.1894034614663</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>530.9520467332648</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>530.9520467332648</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>530.9520467332648</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>519.6668354622486</v>
+        <v>167.2967777317745</v>
       </c>
       <c r="C13" t="n">
-        <v>350.7306525343417</v>
+        <v>167.2967777317745</v>
       </c>
       <c r="D13" t="n">
-        <v>200.614013122006</v>
+        <v>167.2967777317745</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>167.2967777317745</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L13" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M13" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N13" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O13" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P13" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="T13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="U13" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="V13" t="n">
-        <v>922.1078794360185</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="W13" t="n">
-        <v>922.1078794360185</v>
+        <v>632.2015525102863</v>
       </c>
       <c r="X13" t="n">
-        <v>922.1078794360185</v>
+        <v>404.212001612269</v>
       </c>
       <c r="Y13" t="n">
-        <v>701.3153002924884</v>
+        <v>348.9452425620142</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.535623108069</v>
+        <v>294.1879488037455</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.535623108069</v>
+        <v>294.1879488037455</v>
       </c>
       <c r="D14" t="n">
-        <v>975.2699245013189</v>
+        <v>36.52595090141995</v>
       </c>
       <c r="E14" t="n">
-        <v>589.4816719030746</v>
+        <v>36.52595090141995</v>
       </c>
       <c r="F14" t="n">
-        <v>589.4816719030746</v>
+        <v>36.52595090141995</v>
       </c>
       <c r="G14" t="n">
-        <v>172.393890139502</v>
+        <v>36.52595090141995</v>
       </c>
       <c r="H14" t="n">
-        <v>172.393890139502</v>
+        <v>36.52595090141995</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J14" t="n">
-        <v>241.3408185533492</v>
+        <v>101.5286049718924</v>
       </c>
       <c r="K14" t="n">
-        <v>644.8079315733946</v>
+        <v>184.0917595464848</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.621189819594</v>
+        <v>323.420415387738</v>
       </c>
       <c r="M14" t="n">
-        <v>1384.320602645002</v>
+        <v>510.1198282131456</v>
       </c>
       <c r="N14" t="n">
-        <v>1578.654815536984</v>
+        <v>704.454041105128</v>
       </c>
       <c r="O14" t="n">
-        <v>2125.816020304062</v>
+        <v>874.6230664220875</v>
       </c>
       <c r="P14" t="n">
-        <v>2555.131066643356</v>
+        <v>985.357391671614</v>
       </c>
       <c r="Q14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.909368615075</v>
+        <v>805.5416499609202</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.909368615075</v>
+        <v>551.849946706071</v>
       </c>
       <c r="V14" t="n">
-        <v>2449.909368615075</v>
+        <v>294.1879488037455</v>
       </c>
       <c r="W14" t="n">
-        <v>2097.140713344961</v>
+        <v>294.1879488037455</v>
       </c>
       <c r="X14" t="n">
-        <v>1723.674955083881</v>
+        <v>294.1879488037455</v>
       </c>
       <c r="Y14" t="n">
-        <v>1333.535623108069</v>
+        <v>294.1879488037455</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>623.1627748697949</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>448.7097455886679</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238405</v>
+        <v>299.7753359274167</v>
       </c>
       <c r="E15" t="n">
-        <v>483.497710018385</v>
+        <v>299.7753359274167</v>
       </c>
       <c r="F15" t="n">
-        <v>336.96315204527</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="G15" t="n">
-        <v>199.521754404492</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929655</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L15" t="n">
-        <v>1005.150115568437</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M15" t="n">
-        <v>1184.647451923042</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439338</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.467288245464</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="T15" t="n">
-        <v>2267.477992405552</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="V15" t="n">
-        <v>1804.187096684975</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>791.378111889863</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>791.378111889863</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.673451275196</v>
+        <v>487.3727461564999</v>
       </c>
       <c r="C16" t="n">
-        <v>390.673451275196</v>
+        <v>318.4365632285931</v>
       </c>
       <c r="D16" t="n">
-        <v>240.5568118628603</v>
+        <v>168.3199238162573</v>
       </c>
       <c r="E16" t="n">
-        <v>92.6437182804672</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F16" t="n">
-        <v>92.6437182804672</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L16" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M16" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N16" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O16" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>889.8635504126119</v>
       </c>
       <c r="T16" t="n">
-        <v>827.0064043113226</v>
+        <v>664.2343537249768</v>
       </c>
       <c r="U16" t="n">
-        <v>827.0064043113226</v>
+        <v>664.2343537249768</v>
       </c>
       <c r="V16" t="n">
-        <v>572.3219161054358</v>
+        <v>664.2343537249768</v>
       </c>
       <c r="W16" t="n">
-        <v>572.3219161054358</v>
+        <v>664.2343537249768</v>
       </c>
       <c r="X16" t="n">
-        <v>572.3219161054358</v>
+        <v>664.2343537249768</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.3219161054358</v>
+        <v>487.3727461564999</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1349.814732570547</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="C17" t="n">
-        <v>1349.814732570547</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="D17" t="n">
-        <v>1198.997721320284</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E17" t="n">
-        <v>1198.997721320284</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F17" t="n">
-        <v>788.0118165306759</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G17" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>230.2903331512945</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>633.75744617134</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.621189819594</v>
+        <v>1186.570704417539</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.320602645002</v>
+        <v>1373.270117242947</v>
       </c>
       <c r="N17" t="n">
-        <v>1578.654815536984</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O17" t="n">
-        <v>2125.816020304062</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P17" t="n">
-        <v>2555.131066643356</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5545,22 +5545,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U17" t="n">
-        <v>2420.246115248354</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V17" t="n">
-        <v>2089.183227904783</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W17" t="n">
-        <v>1736.414572634669</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="X17" t="n">
-        <v>1736.414572634669</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1736.414572634669</v>
+        <v>1386.255829290926</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
@@ -5603,16 +5603,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.27200203395</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N18" t="n">
-        <v>1430.928743686615</v>
+        <v>1844.352206688206</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>537.8542278890025</v>
+        <v>516.4401435478233</v>
       </c>
       <c r="C19" t="n">
-        <v>368.9180449610956</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D19" t="n">
-        <v>368.1977120421399</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E19" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F19" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
         <v>52.70091953961285</v>
@@ -5697,28 +5697,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R19" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S19" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T19" t="n">
-        <v>827.0064043113226</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U19" t="n">
-        <v>537.8542278890025</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V19" t="n">
-        <v>537.8542278890025</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="W19" t="n">
-        <v>537.8542278890025</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="X19" t="n">
-        <v>537.8542278890025</v>
+        <v>698.088608378063</v>
       </c>
       <c r="Y19" t="n">
-        <v>537.8542278890025</v>
+        <v>698.088608378063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1482.72286937982</v>
+        <v>1991.214941749982</v>
       </c>
       <c r="C20" t="n">
-        <v>1113.760352439408</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D20" t="n">
-        <v>1113.760352439408</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E20" t="n">
-        <v>727.972099841164</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9861950515564</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5761,7 +5761,7 @@
         <v>784.1365874146478</v>
       </c>
       <c r="M20" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N20" t="n">
         <v>1413.39376509937</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U20" t="n">
-        <v>2166.554411993505</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V20" t="n">
-        <v>1835.491524649934</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W20" t="n">
-        <v>1482.72286937982</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X20" t="n">
-        <v>1482.72286937982</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="Y20" t="n">
-        <v>1482.72286937982</v>
+        <v>1991.214941749982</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I21" t="n">
         <v>52.70091953961285</v>
@@ -5840,7 +5840,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N21" t="n">
         <v>1430.928743686615</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.2736804668652</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C22" t="n">
-        <v>519.3374975389584</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D22" t="n">
-        <v>369.2208581266226</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E22" t="n">
-        <v>221.3077645442295</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5937,25 +5937,25 @@
         <v>922.1576397183603</v>
       </c>
       <c r="S22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="W22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="X22" t="n">
-        <v>922.1576397183603</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="Y22" t="n">
-        <v>869.922145297105</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1509.138155103873</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.175638163461</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="D23" t="n">
-        <v>781.9099395567109</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E23" t="n">
-        <v>781.9099395567109</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F23" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G23" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H23" t="n">
         <v>52.70091953961285</v>
@@ -5989,25 +5989,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J23" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K23" t="n">
-        <v>323.9039731279416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L23" t="n">
-        <v>463.2326289691948</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M23" t="n">
-        <v>786.0860970395232</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N23" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O23" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P23" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q23" t="n">
         <v>2635.045976980643</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2583.10902969337</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2252.046142349799</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>1899.277487079685</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X23" t="n">
-        <v>1899.277487079685</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y23" t="n">
-        <v>1509.138155103873</v>
+        <v>1109.25711111874</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023182</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L24" t="n">
-        <v>1005.150115568437</v>
+        <v>591.7266525668454</v>
       </c>
       <c r="M24" t="n">
-        <v>1184.647451923041</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N24" t="n">
         <v>1430.928743686615</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C25" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
         <v>52.70091953961285</v>
@@ -6174,25 +6174,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S25" t="n">
-        <v>1052.635600998958</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="T25" t="n">
-        <v>960.8318244115267</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="U25" t="n">
-        <v>671.6796479892064</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V25" t="n">
-        <v>671.6796479892064</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W25" t="n">
-        <v>382.2624779522457</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
-        <v>382.2624779522457</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y25" t="n">
-        <v>382.2624779522457</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>820.1339368062954</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="C26" t="n">
-        <v>820.1339368062954</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D26" t="n">
-        <v>461.8682381995449</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8682381995449</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F26" t="n">
-        <v>461.8682381995449</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G26" t="n">
         <v>52.70091953961285</v>
@@ -6226,25 +6226,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K26" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L26" t="n">
-        <v>784.1365874146478</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M26" t="n">
-        <v>970.8360002400555</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N26" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P26" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U26" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V26" t="n">
-        <v>1932.968190401611</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W26" t="n">
-        <v>1580.199535131497</v>
+        <v>1736.414572634669</v>
       </c>
       <c r="X26" t="n">
-        <v>1206.733776870417</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="Y26" t="n">
-        <v>1206.733776870417</v>
+        <v>1576.703292474627</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023182</v>
+        <v>120.3087392029697</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4113519543012</v>
+        <v>624.6702790690882</v>
       </c>
       <c r="M27" t="n">
-        <v>1483.956701421406</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N27" t="n">
-        <v>2136.130580724115</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O27" t="n">
-        <v>2295.642893392876</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980642</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.7773869882271</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C28" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D28" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E28" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F28" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G28" t="n">
         <v>52.70091953961285</v>
@@ -6408,28 +6408,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R28" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S28" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.635600998958</v>
+        <v>460.0328667648788</v>
       </c>
       <c r="W28" t="n">
-        <v>763.218430961997</v>
+        <v>170.6156967279182</v>
       </c>
       <c r="X28" t="n">
-        <v>763.218430961997</v>
+        <v>170.6156967279182</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.4258518184669</v>
+        <v>170.6156967279182</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1635.525375631449</v>
+        <v>1687.653208860584</v>
       </c>
       <c r="C29" t="n">
-        <v>1266.562858691037</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="D29" t="n">
-        <v>1266.562858691037</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="E29" t="n">
-        <v>880.774606092793</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F29" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K29" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L29" t="n">
-        <v>1197.621189819594</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M29" t="n">
-        <v>1384.320602645002</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N29" t="n">
-        <v>1578.654815536984</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O29" t="n">
-        <v>2125.816020304062</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P29" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6496,19 +6496,19 @@
         <v>2420.246115248354</v>
       </c>
       <c r="U29" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V29" t="n">
-        <v>2022.125215695571</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W29" t="n">
-        <v>2022.125215695571</v>
+        <v>2074.253048924706</v>
       </c>
       <c r="X29" t="n">
-        <v>2022.125215695571</v>
+        <v>2074.253048924706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2022.125215695571</v>
+        <v>2074.253048924706</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K30" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029697</v>
       </c>
       <c r="L30" t="n">
-        <v>989.1812241132641</v>
+        <v>624.6702790690882</v>
       </c>
       <c r="M30" t="n">
-        <v>1168.678560467869</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N30" t="n">
-        <v>1820.852439770578</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439339</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920175</v>
+        <v>2575.515144118924</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961286</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6648,25 +6648,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>501.4830495811603</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V31" t="n">
-        <v>501.4830495811603</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W31" t="n">
-        <v>501.4830495811603</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="X31" t="n">
-        <v>273.4934986831429</v>
+        <v>605.2586029257184</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.70091953961286</v>
+        <v>384.4660237821882</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1561.075102391146</v>
+        <v>1270.041184947341</v>
       </c>
       <c r="C32" t="n">
-        <v>1192.112585450735</v>
+        <v>901.0786680069289</v>
       </c>
       <c r="D32" t="n">
-        <v>833.8468868439843</v>
+        <v>901.0786680069289</v>
       </c>
       <c r="E32" t="n">
-        <v>448.0586342457401</v>
+        <v>515.2904154086846</v>
       </c>
       <c r="F32" t="n">
-        <v>52.70091953961286</v>
+        <v>104.304510619077</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>104.304510619077</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>104.304510619077</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K32" t="n">
-        <v>156.4983241075885</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L32" t="n">
-        <v>709.3115823537878</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M32" t="n">
-        <v>1341.029393337099</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N32" t="n">
-        <v>1968.337061396946</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O32" t="n">
-        <v>2138.506086713905</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P32" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6730,22 +6730,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V32" t="n">
-        <v>2303.983089637072</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.214434366958</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="X32" t="n">
-        <v>1951.214434366958</v>
+        <v>2046.780356987274</v>
       </c>
       <c r="Y32" t="n">
-        <v>1561.075102391146</v>
+        <v>1656.641025011462</v>
       </c>
     </row>
     <row r="33">
@@ -6770,40 +6770,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H33" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.272002033951</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.928743686616</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439339</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.6668354622486</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C34" t="n">
-        <v>350.7306525343417</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D34" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6888,22 +6888,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>955.9997884983752</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>955.9997884983752</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>701.3153002924884</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W34" t="n">
-        <v>701.3153002924884</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X34" t="n">
-        <v>701.3153002924884</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y34" t="n">
-        <v>701.3153002924884</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1108.765490715616</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C35" t="n">
-        <v>739.8029737752047</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D35" t="n">
-        <v>739.8029737752047</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E35" t="n">
-        <v>354.0147211769604</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F35" t="n">
-        <v>354.0147211769604</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G35" t="n">
         <v>52.70091953961286</v>
@@ -6937,25 +6937,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>1032.36013938198</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M35" t="n">
-        <v>1219.059552207388</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N35" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U35" t="n">
-        <v>2225.139236222622</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V35" t="n">
-        <v>2225.139236222622</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W35" t="n">
-        <v>1872.370580952508</v>
+        <v>2067.47745997824</v>
       </c>
       <c r="X35" t="n">
-        <v>1498.904822691428</v>
+        <v>1942.456559724953</v>
       </c>
       <c r="Y35" t="n">
-        <v>1108.765490715616</v>
+        <v>1552.317227749141</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M36" t="n">
-        <v>817.5155100726172</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686616</v>
+        <v>1844.352206688206</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439339</v>
+        <v>2003.864519356967</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.7537418798555</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C37" t="n">
         <v>202.8175589519486</v>
@@ -7128,19 +7128,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>842.8193767470559</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>842.8193767470559</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W37" t="n">
-        <v>553.4022067100952</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X37" t="n">
-        <v>553.4022067100952</v>
+        <v>280.8093854727332</v>
       </c>
       <c r="Y37" t="n">
-        <v>553.4022067100952</v>
+        <v>280.8093854727332</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1249.737123033205</v>
+        <v>803.460363091564</v>
       </c>
       <c r="C38" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="D38" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="E38" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F38" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G38" t="n">
         <v>52.70091953961286</v>
@@ -7174,25 +7174,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>1032.36013938198</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M38" t="n">
-        <v>1219.059552207388</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.354273725794</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V38" t="n">
-        <v>2050.291386382223</v>
+        <v>1932.968190401612</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.522731112109</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.876455009016</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.737123033205</v>
+        <v>1190.060203155686</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662192</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850922</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
-        <v>642.735165023841</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183855</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452705</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044924</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H39" t="n">
-        <v>98.605776549297</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I39" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L39" t="n">
-        <v>907.0047935203841</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M39" t="n">
-        <v>1547.550142987489</v>
+        <v>1159.904271328221</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O39" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7280,7 +7280,7 @@
         <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T39" t="n">
         <v>2267.477992405552</v>
@@ -7289,7 +7289,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V39" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
         <v>1549.949739956774</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>219.3817663337899</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C40" t="n">
-        <v>202.8175589519486</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F40" t="n">
         <v>52.70091953961286</v>
@@ -7377,7 +7377,7 @@
         <v>219.3817663337899</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.3817663337899</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1557.263419927034</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.263419927034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D41" t="n">
-        <v>1198.997721320284</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E41" t="n">
-        <v>1198.997721320284</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F41" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H41" t="n">
         <v>52.70091953961286</v>
@@ -7411,25 +7411,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L41" t="n">
-        <v>784.1365874146478</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M41" t="n">
-        <v>970.8360002400555</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7444,19 +7444,19 @@
         <v>2420.246115248354</v>
       </c>
       <c r="U41" t="n">
-        <v>2261.792065531684</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V41" t="n">
-        <v>1930.729178188114</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W41" t="n">
-        <v>1930.729178188114</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X41" t="n">
-        <v>1557.263419927034</v>
+        <v>1639.876455009016</v>
       </c>
       <c r="Y41" t="n">
-        <v>1557.263419927034</v>
+        <v>1249.737123033205</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>257.5383372186639</v>
+        <v>799.7031674253369</v>
       </c>
       <c r="M42" t="n">
-        <v>898.0836866857685</v>
+        <v>1440.248516892442</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439339</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P42" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
         <v>52.70091953961286</v>
@@ -7602,19 +7602,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>831.0446079937932</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V43" t="n">
-        <v>831.0446079937932</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W43" t="n">
-        <v>831.0446079937932</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X43" t="n">
-        <v>603.0550570957759</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y43" t="n">
-        <v>382.2624779522457</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1679.276487146763</v>
+        <v>1718.765341152269</v>
       </c>
       <c r="C44" t="n">
-        <v>1679.276487146763</v>
+        <v>1349.802824211858</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.010788540012</v>
+        <v>991.5371256051073</v>
       </c>
       <c r="E44" t="n">
-        <v>1198.997721320284</v>
+        <v>991.5371256051073</v>
       </c>
       <c r="F44" t="n">
-        <v>788.0118165306759</v>
+        <v>580.5512208154998</v>
       </c>
       <c r="G44" t="n">
-        <v>370.9240347671034</v>
+        <v>163.4634390519273</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961286</v>
+        <v>163.4634390519273</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
@@ -7651,22 +7651,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L44" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M44" t="n">
-        <v>1216.914953624649</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N44" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O44" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7678,22 +7678,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>1679.276487146763</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W44" t="n">
-        <v>1679.276487146763</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X44" t="n">
-        <v>1679.276487146763</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.276487146763</v>
+        <v>2105.365181216391</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L45" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M45" t="n">
-        <v>1184.647451923042</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.928743686616</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.364752439339</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P45" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.6371024675198</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C46" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E46" t="n">
         <v>52.70091953961286</v>
@@ -7839,19 +7839,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V46" t="n">
-        <v>763.4834245766374</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W46" t="n">
-        <v>763.4834245766374</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="X46" t="n">
-        <v>535.49387367862</v>
+        <v>603.0550570957759</v>
       </c>
       <c r="Y46" t="n">
-        <v>403.2855672977595</v>
+        <v>382.2624779522457</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,16 +8063,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>60.49244923701512</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>354.7101519143952</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>127.2770751262505</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>60.49244923701512</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.38463668251659</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>127.2770751262505</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>157.9345087053519</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.38463668251659</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>186.3401494352141</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>250.7308605730626</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M23" t="n">
-        <v>137.5293487322432</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>337.5639548971531</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>250.7308605730627</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>207.4678568043324</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>458.0981188384286</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>37.16554713105188</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P29" t="n">
-        <v>154.8683541940949</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>354.7101519143957</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>37.16554713105194</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0501052952627</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7308605730632</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>418.9459514760947</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>294.7256303393026</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>423.0784481852545</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>271.703656366032</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>73.09871788457551</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7308605730631</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,16 +11141,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>283.1760056204245</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>337.5639548971541</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>2.166261194686115</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>48.1056061726357</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569022</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22597,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>170.365719729939</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,16 +22761,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>297.5105822931005</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="6">
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>36.26901108812089</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>176.5029409294872</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>37.01560241437875</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>43.96086115989003</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.4822444297368</v>
+        <v>127.6484637401783</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>99.59766369738068</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>311.9040563255573</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>131.1525607327513</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>117.4280930673327</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -23475,16 +23475,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>122.9151989765182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>163.8705618923426</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>99.59766369738068</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>102.5381114330101</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>184.0195079611948</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>72.66688054683263</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4.5613754211372</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>127.3774058011246</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
@@ -23712,7 +23712,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>43.4916618593027</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>205.3742004829219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>98.57383781413921</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>147.9023434284462</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>3.881314362142803</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.550371163335456</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>269.770522083003</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>223.3729047207587</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.871513875052</v>
+        <v>170.9056870615941</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>97.49882777132029</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24259,10 +24259,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>199.7372084079007</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,10 +24414,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>13.92385563909261</v>
       </c>
       <c r="T25" t="n">
-        <v>132.487165899202</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.841258472604068</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>211.6169333200273</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.09635076551503</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>29.17189487907015</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.3729047207587</v>
@@ -24660,7 +24660,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>184.7673541351797</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>334.4600915271367</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>169.358415375355</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.179332017288971</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>15.47190818264556</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -24937,7 +24937,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>67.40848572522079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,22 +25128,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>127.7034503451821</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>53.57061502585952</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>114.6162403249627</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>245.9604094277147</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>102.6200719263606</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>78.54259264871428</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>28.89708839628747</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
         <v>315.0408840752156</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>312.6612873364072</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>150.8482557906049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.9207765545704</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>198.9916630487908</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>94.28527700279739</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>197.560891981238</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>14.81794185570203</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,19 +25842,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>66.88557158298417</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>261.1374335247305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938903</v>
+        <v>8.841146576699003</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,19 +26079,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>32.76256024871515</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.69843003504283</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498839.2872644282</v>
+        <v>358732.3883940964</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940964</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836519.6495866911</v>
+        <v>549252.2745108757</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836519.6495866909</v>
+        <v>549252.2745108758</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095897</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095897</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>95642.404280959</v>
       </c>
       <c r="E2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="F2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.1137389639</v>
       </c>
       <c r="G2" t="n">
         <v>237303.5238233911</v>
@@ -26334,7 +26334,7 @@
         <v>237303.5238233911</v>
       </c>
       <c r="I2" t="n">
-        <v>237303.523823391</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="J2" t="n">
         <v>237303.5238233911</v>
@@ -26346,16 +26346,16 @@
         <v>237303.5238233911</v>
       </c>
       <c r="M2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.523823391</v>
       </c>
       <c r="N2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="O2" t="n">
         <v>237303.5238233911</v>
       </c>
       <c r="P2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>539786.465644841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110641.5683420766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>52570.38263440537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>97145.06106897154</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872374</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="E4" t="n">
+        <v>6590.838313831422</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6590.838313831422</v>
+      </c>
+      <c r="G4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36133.96051511372</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26447,7 +26447,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="M4" t="n">
         <v>36133.96051511374</v>
@@ -26456,10 +26456,10 @@
         <v>36133.96051511373</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511374</v>
       </c>
       <c r="P4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26496,10 +26496,10 @@
         <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
         <v>52990.47783747559</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58725.17681781853</v>
+        <v>7110.878329429204</v>
       </c>
       <c r="C6" t="n">
-        <v>22044.25471372919</v>
+        <v>21900.58433367341</v>
       </c>
       <c r="D6" t="n">
-        <v>22044.25471372927</v>
+        <v>21900.58433367344</v>
       </c>
       <c r="E6" t="n">
-        <v>-459046.0930609638</v>
+        <v>-415017.4263986072</v>
       </c>
       <c r="F6" t="n">
-        <v>142484.5114631567</v>
+        <v>124769.0392462337</v>
       </c>
       <c r="G6" t="n">
-        <v>142484.5114631567</v>
+        <v>36968.05972796075</v>
       </c>
       <c r="H6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="I6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="J6" t="n">
-        <v>79424.56886405042</v>
+        <v>136062.7099600464</v>
       </c>
       <c r="K6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="L6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="M6" t="n">
-        <v>38380.23689675376</v>
+        <v>95039.24543563183</v>
       </c>
       <c r="N6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="O6" t="n">
-        <v>142484.5114631566</v>
+        <v>50464.56700106576</v>
       </c>
       <c r="P6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26816,10 +26816,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
         <v>658.7614942451607</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922856</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U30" t="n">
         <v>0.08398246702897151</v>
@@ -33529,7 +33529,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U33" t="n">
         <v>0.08398246702897151</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>81.94118660406896</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>188.5852654802098</v>
@@ -35424,13 +35424,13 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>493.3259074858033</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>150.2436824009747</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>81.94118660406896</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
         <v>188.5852654802098</v>
@@ -35661,13 +35661,13 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.72213165382477</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>150.2436824009747</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>179.3832460724057</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35895,16 +35895,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.72213165382477</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>347.4636975854773</v>
       </c>
       <c r="P18" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
-        <v>439.3161260532724</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36208,10 +36208,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K23" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7360160012659</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M23" t="n">
-        <v>326.114614212453</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36375,10 +36375,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
-        <v>509.4561008748672</v>
+        <v>476.1797104685611</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>248.768981579367</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K26" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L26" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N26" t="n">
-        <v>447.0280453124388</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
-        <v>346.0836123757404</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
         <v>647.0155045122269</v>
@@ -36688,13 +36688,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>146.953049683879</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K29" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P29" t="n">
-        <v>266.7212079814955</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L30" t="n">
-        <v>493.3259074858037</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105733</v>
+        <v>60.13215440577617</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L32" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>253.9029590826633</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>391.466876574329</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>619.6093268828267</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>404.5131328921297</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>611.6637136654642</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>410.3194119374401</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>273.7620932913075</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>447.0280453124392</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>421.7917611918325</v>
       </c>
       <c r="M42" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>538.2273303038861</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37879,7 +37879,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>198.4634459340622</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P44" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>332.7559639452625</v>
@@ -38104,19 +38104,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>248.7689815793677</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097293</v>
       </c>
       <c r="Q45" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
